--- a/gallery/Share of questions each smart speaker answered correctly, by category/Share of questions each smart speaker answered correctly, by category.xlsx
+++ b/gallery/Share of questions each smart speaker answered correctly, by category/Share of questions each smart speaker answered correctly, by category.xlsx
@@ -1786,6 +1786,20 @@
               <a:t>Share of questions each smart speaker answered correctly, by category</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
@@ -2461,8 +2475,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82663829183514226"/>
-          <c:y val="7.9677577840307504E-2"/>
+          <c:x val="0.82583749103434156"/>
+          <c:y val="0.14107230590170222"/>
           <c:w val="0.16615450095765055"/>
           <c:h val="0.18686444975158889"/>
         </c:manualLayout>
@@ -4242,15 +4256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4674,7 +4688,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K60" sqref="A1:XFD1048576"/>
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
